--- a/Wetlands/SamplingNotes/SamplingData_Wetland-12_2022-07-27.xlsx
+++ b/Wetlands/SamplingNotes/SamplingData_Wetland-12_2022-07-27.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Wetlands/SamplingNotes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amymad138\Documents\Ecuador2022\Wetlands\SamplingNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0091222C-BAF0-FA47-84B3-33005EE8BCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3DD21B-7A14-4249-8363-EE9C970E7CB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" xr2:uid="{74A57B8E-EC2A-C24C-966A-837198C90C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -446,12 +438,12 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,33 +459,33 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -501,7 +493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -512,7 +504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>0.39861111111111108</v>
       </c>
@@ -523,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>0.41111111111111115</v>
       </c>
@@ -534,7 +526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>0.4236111111111111</v>
       </c>
@@ -545,15 +537,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -564,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>0.39861111111111108</v>
       </c>
@@ -575,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>0.41111111111111115</v>
       </c>
@@ -586,7 +578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>0.4236111111111111</v>
       </c>
@@ -597,18 +589,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -619,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>39</v>
       </c>
@@ -630,7 +622,7 @@
         <v>0.40138888888888885</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>43</v>
       </c>
@@ -641,7 +633,7 @@
         <v>0.41250000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>44</v>
       </c>
@@ -652,7 +644,7 @@
         <v>0.41388888888888892</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>41</v>
       </c>
